--- a/tools/bsi/bs-it-gs-2023-isms-sicherheitsmanagement.xlsx
+++ b/tools/bsi/bs-it-gs-2023-isms-sicherheitsmanagement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/bsi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F1A2AA-C606-DB43-9FA4-DF9415AFB2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7998527-2AEA-BD47-B146-8E73C9C5657F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="-28300" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3860" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -705,9 +705,6 @@
     <t>framework_urn</t>
   </si>
   <si>
-    <t>urn:intuitem:risk:framework:bs-it-gs-2023-con-konzeption-und-vorgehensweisen</t>
-  </si>
-  <si>
     <t>framework_ref_id</t>
   </si>
   <si>
@@ -739,15 +736,25 @@
   </si>
   <si>
     <t>IT-Grundschutz-Kompendium – Werkzeug für Informationssicherheit - ISMS: Sicherheitsmanagement</t>
+  </si>
+  <si>
+    <t>urn:intuitem:risk:framework:bs-it-gs-2023-isms-sicherheitsmanagement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -801,21 +808,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1123,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46182340-C92C-9048-948A-F9A29BF02A75}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="242" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="242" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1138,8 +1148,8 @@
       <c r="A1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>236</v>
+      <c r="B1" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1163,7 +1173,7 @@
         <v>216</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1171,7 +1181,7 @@
         <v>217</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1210,29 +1220,29 @@
       <c r="A10" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>227</v>
+      <c r="B10" s="6" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>219</v>
@@ -1240,18 +1250,18 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>5</v>
@@ -2928,7 +2938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2BE20B-AB6E-464C-9160-B6D14834DB91}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="252" workbookViewId="0">
+    <sheetView zoomScale="252" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2954,7 +2964,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2962,7 +2972,7 @@
         <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2970,7 +2980,7 @@
         <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
